--- a/Akshay sample sheet.xlsx
+++ b/Akshay sample sheet.xlsx
@@ -13,6 +13,26 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>sdfsdfs</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>sfsd</t>
+  </si>
+  <si>
+    <t>fsdfsd</t>
+  </si>
+  <si>
+    <t>sdffs</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -379,6 +399,36 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>4</v>
       </c>
     </row>

--- a/Akshay sample sheet.xlsx
+++ b/Akshay sample sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>sdfsdfs</t>
   </si>
@@ -31,6 +31,45 @@
   </si>
   <si>
     <t>sdffs</t>
+  </si>
+  <si>
+    <t>rfgerg</t>
+  </si>
+  <si>
+    <t>thrt</t>
+  </si>
+  <si>
+    <t>rthtyh</t>
+  </si>
+  <si>
+    <t>akshay</t>
+  </si>
+  <si>
+    <t>joshi</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>definitely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reach </t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">one </t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
 </sst>
 </file>
@@ -369,67 +408,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>436</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>12544</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
